--- a/processed/Book1.xlsx
+++ b/processed/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\myfinalproject\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{063AD046-CD84-4320-87C6-EDEEE2C0482A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B056FE7-87BD-4B14-A09F-1C0CF37A476F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{44228195-E9A6-4723-AE7E-65950B4F559D}"/>
+    <workbookView xWindow="10680" yWindow="60" windowWidth="9810" windowHeight="10185" xr2:uid="{44228195-E9A6-4723-AE7E-65950B4F559D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t xml:space="preserve">Region </t>
   </si>
@@ -67,12 +67,6 @@
   </si>
   <si>
     <t>East of England</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Region</t>
   </si>
 </sst>
 </file>
@@ -155,11 +149,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -186,12 +180,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -201,12 +199,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -216,12 +218,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -231,12 +237,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -246,12 +256,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -261,12 +275,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -278,12 +296,16 @@
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -295,114 +317,167 @@
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
-          </c:dPt>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$12:$A$20</c:f>
+              <c:f>Sheet1!$F$3:$F$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>East Midlands</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>East of England</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>North East</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>North West</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>South East</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>South West</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Yorkshire and the Humber</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>West Midlands</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>East Midlands</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>East of England</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>London</c:v>
+                  <c:v>Yorkshire and the Humber</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$B$20</c:f>
+              <c:f>Sheet1!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>6.3069590779680752E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.34436677446957E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.5843267697675716E-5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>4.7539937634140266E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>9.8037773954304599E-5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>8.7115819237164105E-5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.3976276797589373E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5.3757669525821964E-5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.3069590779680752E-5</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.34436677446957E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2675757580153245E-4</c:v>
+                  <c:v>4.3976276797589373E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6352-4AA2-B796-3321E18E99F9}"/>
+              <c16:uniqueId val="{00000000-8206-44FB-B9E4-EC7F49B08A16}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -417,10 +492,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -433,9 +513,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -459,14 +539,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -532,137 +628,190 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -672,37 +821,37 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -710,7 +859,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -726,248 +875,280 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:seriesLine>
   <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -976,14 +1157,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -992,9 +1172,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1004,20 +1184,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1026,11 +1205,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1038,14 +1222,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1054,23 +1232,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E0E339-1660-4B65-A3C0-85459A96FD18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12E1E99-9DB7-4ADA-8764-988E34D598DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AB588E-5C62-46A8-A1DE-620A83EF171F}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,9 +1578,11 @@
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1413,221 +1593,179 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>305</v>
       </c>
       <c r="C2">
-        <v>2669941</v>
+        <v>4835928</v>
       </c>
       <c r="D2">
         <f>B2/C2</f>
-        <v>2.509418747455468E-5</v>
+        <v>6.3069590779680752E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>305</v>
+        <v>458</v>
       </c>
       <c r="C3">
-        <v>4835928</v>
+        <v>6236072</v>
       </c>
       <c r="D3">
         <f>B3/C3</f>
+        <v>7.34436677446957E-5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
         <v>6.3069590779680752E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>242</v>
+        <v>67</v>
       </c>
       <c r="C4">
-        <v>5502967</v>
+        <v>2669941</v>
       </c>
       <c r="D4">
         <f>B4/C4</f>
-        <v>4.3976276797589373E-5</v>
+        <v>2.509418747455468E-5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>7.34436677446957E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>490</v>
+        <v>349</v>
       </c>
       <c r="C5">
-        <v>5624696</v>
+        <v>7341196</v>
       </c>
       <c r="D5">
         <f>B5/C5</f>
-        <v>8.7115819237164105E-5</v>
+        <v>4.7539937634140266E-5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>2.5843267697675716E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>319</v>
+        <v>900</v>
       </c>
       <c r="C6">
-        <v>5934037</v>
+        <v>9180135</v>
       </c>
       <c r="D6">
         <f>B6/C6</f>
-        <v>5.3757669525821964E-5</v>
+        <v>9.8037773954304599E-5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4.7539937634140266E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="C7">
-        <v>6236072</v>
+        <v>5624696</v>
       </c>
       <c r="D7">
         <f>B7/C7</f>
-        <v>7.34436677446957E-5</v>
+        <v>8.7115819237164105E-5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>9.8037773954304599E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="C8">
-        <v>7341196</v>
+        <v>5934037</v>
       </c>
       <c r="D8">
         <f>B8/C8</f>
-        <v>4.7539937634140266E-5</v>
+        <v>5.3757669525821964E-5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>8.7115819237164105E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>1136</v>
+        <v>242</v>
       </c>
       <c r="C9">
-        <v>8961989</v>
+        <v>5502967</v>
       </c>
       <c r="D9">
         <f>B9/C9</f>
-        <v>1.2675757580153245E-4</v>
+        <v>4.3976276797589373E-5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>5.3757669525821964E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>900</v>
-      </c>
-      <c r="C10">
-        <v>9180135</v>
-      </c>
-      <c r="D10">
-        <f>B10/C10</f>
-        <v>9.8037773954304599E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>2.5843267697675716E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>4.7539937634140266E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>9.8037773954304599E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>8.7115819237164105E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
         <v>7</v>
       </c>
-      <c r="B16">
+      <c r="G10">
         <v>4.3976276797589373E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>5.3757669525821964E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>6.3069590779680752E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>7.34436677446957E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>1.2675757580153245E-4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D20">
-    <sortCondition ref="C1:C20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D9">
+    <sortCondition ref="A2:A9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
